--- a/VerveStacks_ESP/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ESP/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA3FF5D-F4BC-452B-B31D-58D84BEEF26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AAEAC5-A307-4932-BB2E-5A665E585EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0B6A4F-28E8-EBF1-535C-2F0F91BFE733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19971498-B367-AE97-80A2-9730C6D9C419}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
